--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_12.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>378998.9436631816</v>
+        <v>376293.3082743285</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221766</v>
+        <v>2629876.587221768</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179435</v>
+        <v>19997574.02179438</v>
       </c>
     </row>
     <row r="9">
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>39.58387696184059</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="T2" t="n">
         <v>39.58387696184059</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>34.86547882798917</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.11888750173132</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="G3" t="n">
         <v>39.58387696184059</v>
@@ -759,7 +759,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.29193749722201</v>
       </c>
       <c r="I4" t="n">
         <v>39.58387696184059</v>
@@ -841,7 +841,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>9.977552361264268</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -893,67 +893,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="V5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,29 +972,29 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="G6" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="C6" t="n">
+      <c r="H6" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="D6" t="n">
+      <c r="I6" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1069,43 +1069,43 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>9.977552361264268</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>39.58387696184059</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="G8" t="n">
         <v>39.58387696184059</v>
@@ -1151,7 +1151,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="I8" t="n">
-        <v>34.86547882798917</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>34.86547882798917</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="G9" t="n">
         <v>39.58387696184059</v>
@@ -1233,7 +1233,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -1412,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>12.92549025883184</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1458,16 +1458,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>39.58387696184059</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="H12" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="I12" t="n">
-        <v>34.11888750173132</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>39.58387696184059</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,11 +1604,11 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,22 +1649,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>34.86547882798917</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T14" t="n">
-        <v>39.58387696184059</v>
+        <v>12.92549025883184</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>39.58387696184059</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1932,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>44.13217237922859</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="21">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>152.7572822111141</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,64 +2236,64 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2321,64 +2321,64 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
+        <v>200.3360962888296</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2400,19 +2400,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>142.0207091502683</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,22 +2442,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2488,46 +2488,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,11 +2552,11 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
         <v>241.0142888776591</v>
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>38.78703662065078</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2807,10 +2807,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>23.81301614990503</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,10 +2837,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>52.42556848774763</v>
       </c>
     </row>
     <row r="30">
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>63.70936923398088</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2886,13 +2886,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>90.4972570899689</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,16 +2919,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,10 +3041,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>241.0142888776591</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
     </row>
     <row r="33">
@@ -3120,16 +3120,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>14.32130452463231</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,25 +3153,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3226,19 +3226,19 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,16 +3345,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>112.8627250096508</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>6.070819998298259</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3427,67 +3427,67 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,17 +3503,17 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
@@ -3521,10 +3521,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>9.737236172019017</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>188.2184153478179</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3670,52 +3670,52 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,31 +3782,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>208.2792470398066</v>
+      </c>
+      <c r="Y41" t="n">
         <v>236.4659934602711</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>227.1553262408147</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3828,19 +3828,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>25.83603365032467</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,16 +3873,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>236.4659934602711</v>
       </c>
       <c r="X42" t="n">
-        <v>16.78656895264427</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>34.86547882798917</v>
       </c>
       <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="T44" t="n">
+      <c r="Y44" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,70 +4056,70 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="D45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G45" t="n">
+      <c r="W45" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H45" t="n">
+      <c r="X45" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4138,70 +4138,70 @@
         <v>39.58387696184059</v>
       </c>
       <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>9.977552361264268</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="E46" t="n">
+      <c r="Y46" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="F46" t="n">
-        <v>9.977552361264268</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4331,19 +4331,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L2" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M2" t="n">
-        <v>81.54278654139161</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N2" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P2" t="n">
         <v>158.3355078473624</v>
@@ -4352,19 +4352,19 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S2" t="n">
-        <v>78.36807964162378</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T2" t="n">
-        <v>38.38436553875449</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U2" t="n">
-        <v>38.38436553875449</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V2" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W2" t="n">
         <v>3.166710156947247</v>
@@ -4395,37 +4395,37 @@
         <v>158.3355078473624</v>
       </c>
       <c r="F3" t="n">
-        <v>123.8719851183408</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="G3" t="n">
-        <v>83.88827101547153</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H3" t="n">
-        <v>43.90455691260225</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J3" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M3" t="n">
-        <v>40.77139327069581</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N3" t="n">
-        <v>40.77139327069581</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q3" t="n">
         <v>158.3355078473624</v>
@@ -4480,13 +4480,13 @@
         <v>133.1961881840039</v>
       </c>
       <c r="H4" t="n">
-        <v>93.21247408113457</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I4" t="n">
-        <v>53.22875997826529</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J4" t="n">
-        <v>13.245045875396</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K4" t="n">
         <v>3.166710156947247</v>
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C5" t="n">
         <v>3.166710156947247</v>
@@ -4568,49 +4568,49 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M5" t="n">
-        <v>120.7308247336138</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N5" t="n">
-        <v>158.3355078473624</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O5" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P5" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S5" t="n">
-        <v>158.3355078473624</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T5" t="n">
-        <v>158.3355078473624</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="U5" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V5" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W5" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X5" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y5" t="n">
-        <v>78.36807964162378</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="C6" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="D6" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="E6" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="F6" t="n">
+        <v>123.1178524655551</v>
+      </c>
+      <c r="G6" t="n">
         <v>83.13413836268582</v>
       </c>
-      <c r="C6" t="n">
+      <c r="H6" t="n">
         <v>43.15042425981653</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.166710156947247</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.166710156947247</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.166710156947247</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3.166710156947247</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.166710156947247</v>
       </c>
       <c r="I6" t="n">
         <v>3.166710156947247</v>
@@ -4650,16 +4650,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L6" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="N6" t="n">
         <v>40.77139327069581</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>79.95943146291799</v>
-      </c>
-      <c r="N6" t="n">
-        <v>119.1474696551402</v>
-      </c>
-      <c r="O6" t="n">
-        <v>119.1474696551402</v>
       </c>
       <c r="P6" t="n">
         <v>119.1474696551402</v>
@@ -4689,7 +4689,7 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Y6" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.1961881840039</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C7" t="n">
-        <v>133.1961881840039</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D7" t="n">
-        <v>133.1961881840039</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E7" t="n">
-        <v>133.1961881840039</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F7" t="n">
-        <v>133.1961881840039</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G7" t="n">
-        <v>133.1961881840039</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H7" t="n">
-        <v>93.21247408113457</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I7" t="n">
-        <v>53.22875997826529</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="J7" t="n">
-        <v>13.245045875396</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K7" t="n">
         <v>3.166710156947247</v>
@@ -4744,31 +4744,31 @@
         <v>133.1961881840039</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.1961881840039</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1961881840039</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="S7" t="n">
-        <v>133.1961881840039</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T7" t="n">
-        <v>133.1961881840039</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U7" t="n">
-        <v>133.1961881840039</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V7" t="n">
-        <v>133.1961881840039</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W7" t="n">
-        <v>133.1961881840039</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X7" t="n">
-        <v>133.1961881840039</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.1961881840039</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="8">
@@ -4790,13 +4790,13 @@
         <v>158.3355078473624</v>
       </c>
       <c r="F8" t="n">
-        <v>118.3517937444931</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="G8" t="n">
-        <v>78.36807964162378</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H8" t="n">
-        <v>38.38436553875449</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I8" t="n">
         <v>3.166710156947247</v>
@@ -4805,13 +4805,13 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L8" t="n">
-        <v>79.95943146291799</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M8" t="n">
-        <v>79.95943146291799</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N8" t="n">
         <v>79.95943146291799</v>
@@ -4869,16 +4869,16 @@
         <v>158.3355078473624</v>
       </c>
       <c r="F9" t="n">
-        <v>123.1178524655551</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="G9" t="n">
-        <v>83.13413836268582</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="H9" t="n">
-        <v>43.15042425981653</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J9" t="n">
         <v>3.166710156947247</v>
@@ -4887,19 +4887,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L9" t="n">
-        <v>3.166710156947247</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M9" t="n">
-        <v>40.77139327069581</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N9" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O9" t="n">
         <v>119.1474696551402</v>
       </c>
       <c r="P9" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q9" t="n">
         <v>158.3355078473624</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.3355078473624</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="C11" t="n">
-        <v>158.3355078473624</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="D11" t="n">
-        <v>158.3355078473624</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="E11" t="n">
-        <v>158.3355078473624</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="F11" t="n">
-        <v>135.1878417126385</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="G11" t="n">
-        <v>95.20412760976917</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="H11" t="n">
-        <v>55.22041350689989</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I11" t="n">
         <v>15.2366994040306</v>
@@ -5042,49 +5042,49 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K11" t="n">
-        <v>40.77139327069581</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L11" t="n">
-        <v>40.77139327069581</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M11" t="n">
-        <v>79.95943146291799</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N11" t="n">
+        <v>81.54278654139161</v>
+      </c>
+      <c r="O11" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="O11" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="P11" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S11" t="n">
-        <v>158.3355078473624</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T11" t="n">
-        <v>158.3355078473624</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="U11" t="n">
-        <v>158.3355078473624</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="V11" t="n">
-        <v>158.3355078473624</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="W11" t="n">
-        <v>158.3355078473624</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="X11" t="n">
-        <v>158.3355078473624</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="Y11" t="n">
-        <v>158.3355078473624</v>
+        <v>15.2366994040306</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F12" t="n">
         <v>118.3517937444931</v>
       </c>
       <c r="G12" t="n">
-        <v>78.36807964162378</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="H12" t="n">
-        <v>38.38436553875449</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I12" t="n">
         <v>3.920842809732961</v>
@@ -5121,19 +5121,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K12" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="L12" t="n">
         <v>42.35474834916943</v>
       </c>
-      <c r="L12" t="n">
-        <v>81.54278654139161</v>
-      </c>
       <c r="M12" t="n">
-        <v>120.7308247336138</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N12" t="n">
-        <v>158.3355078473624</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O12" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P12" t="n">
         <v>158.3355078473624</v>
@@ -5142,28 +5142,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="C13" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="D13" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="E13" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="F13" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="G13" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="H13" t="n">
-        <v>93.21247408113457</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="I13" t="n">
         <v>53.22875997826529</v>
@@ -5218,31 +5218,31 @@
         <v>133.1961881840039</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.1961881840039</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="S13" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="T13" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="U13" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="V13" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="W13" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="X13" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.166710156947247</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="C14" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="D14" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="E14" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="F14" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="G14" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J14" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K14" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L14" t="n">
-        <v>40.77139327069581</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M14" t="n">
-        <v>79.95943146291799</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N14" t="n">
-        <v>79.95943146291799</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O14" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P14" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R14" t="n">
-        <v>123.1178524655551</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S14" t="n">
-        <v>123.1178524655551</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T14" t="n">
-        <v>83.13413836268582</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="U14" t="n">
-        <v>83.13413836268582</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="V14" t="n">
-        <v>43.15042425981653</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="W14" t="n">
-        <v>43.15042425981653</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="X14" t="n">
-        <v>43.15042425981653</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="Y14" t="n">
-        <v>43.15042425981653</v>
+        <v>55.22041350689989</v>
       </c>
     </row>
     <row r="15">
@@ -5364,16 +5364,16 @@
         <v>81.54278654139161</v>
       </c>
       <c r="M15" t="n">
-        <v>119.1474696551402</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N15" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P15" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q15" t="n">
         <v>158.3355078473624</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="C16" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="D16" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="E16" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="F16" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="G16" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="H16" t="n">
-        <v>93.21247408113457</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="I16" t="n">
         <v>53.22875997826529</v>
@@ -5455,31 +5455,31 @@
         <v>133.1961881840039</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.1961881840039</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="S16" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="T16" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="U16" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="V16" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="W16" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="X16" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.530573790338288</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="C17" t="n">
-        <v>3.530573790338288</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="D17" t="n">
-        <v>3.530573790338288</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="E17" t="n">
-        <v>3.530573790338288</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="F17" t="n">
-        <v>3.530573790338288</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="G17" t="n">
-        <v>3.530573790338288</v>
+        <v>104.756466833843</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J17" t="n">
         <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
+        <v>3.530573790338288</v>
+      </c>
+      <c r="L17" t="n">
         <v>47.22142444577459</v>
-      </c>
-      <c r="L17" t="n">
-        <v>89.14698820604177</v>
       </c>
       <c r="M17" t="n">
         <v>89.14698820604177</v>
@@ -5534,31 +5534,31 @@
         <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V17" t="n">
-        <v>137.2644294849704</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W17" t="n">
-        <v>92.68647758675968</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X17" t="n">
-        <v>48.10852568854899</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.530573790338288</v>
+        <v>166.4370741486873</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.284706443124001</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C18" t="n">
-        <v>4.284706443124001</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D18" t="n">
-        <v>4.284706443124001</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E18" t="n">
-        <v>4.284706443124001</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F18" t="n">
-        <v>4.284706443124001</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G18" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H18" t="n">
-        <v>4.284706443124001</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I18" t="n">
         <v>4.284706443124001</v>
@@ -5595,49 +5595,49 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L18" t="n">
-        <v>45.45613755060546</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M18" t="n">
-        <v>45.45613755060546</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N18" t="n">
-        <v>45.45613755060546</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O18" t="n">
-        <v>89.14698820604177</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q18" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S18" t="n">
-        <v>87.37278572049297</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T18" t="n">
-        <v>42.79483382228227</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U18" t="n">
-        <v>4.284706443124001</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V18" t="n">
-        <v>4.284706443124001</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W18" t="n">
-        <v>4.284706443124001</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X18" t="n">
-        <v>4.284706443124001</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.284706443124001</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="19">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D19" t="n">
         <v>3.530573790338288</v>
@@ -5695,28 +5695,28 @@
         <v>138.062864280609</v>
       </c>
       <c r="R19" t="n">
+        <v>138.062864280609</v>
+      </c>
+      <c r="S19" t="n">
+        <v>138.062864280609</v>
+      </c>
+      <c r="T19" t="n">
         <v>93.48491238239833</v>
-      </c>
-      <c r="S19" t="n">
-        <v>93.48491238239833</v>
-      </c>
-      <c r="T19" t="n">
-        <v>48.90696048418764</v>
       </c>
       <c r="U19" t="n">
         <v>48.90696048418764</v>
       </c>
       <c r="V19" t="n">
-        <v>48.90696048418764</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W19" t="n">
         <v>4.329008585976936</v>
       </c>
       <c r="X19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5789,13 +5789,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>306.9463781888485</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C21" t="n">
-        <v>306.9463781888485</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5835,46 +5835,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>535.1699964524594</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>306.9463781888485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>306.9463781888485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>306.9463781888485</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X21" t="n">
-        <v>306.9463781888485</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y21" t="n">
-        <v>306.9463781888485</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="22">
@@ -5941,19 +5941,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E23" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F23" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X23" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6072,10 +6072,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C26" t="n">
         <v>19.28114311021272</v>
@@ -6257,13 +6257,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W26" t="n">
         <v>720.6083788665362</v>
-      </c>
-      <c r="V26" t="n">
-        <v>720.6083788665362</v>
-      </c>
-      <c r="W26" t="n">
-        <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
         <v>477.1596022224361</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>217.6974229850125</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
-        <v>217.6974229850125</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>217.6974229850125</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>58.45996797955695</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>58.45996797955695</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>58.45996797955695</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>58.45996797955695</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,13 +6306,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
         <v>542.809531908403</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>425.5489231905453</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>425.5489231905453</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X27" t="n">
-        <v>217.6974229850125</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y27" t="n">
-        <v>217.6974229850125</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="28">
@@ -6406,22 +6406,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
         <v>19.28114311021272</v>
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>499.3853800778592</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W29" t="n">
-        <v>499.3853800778592</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X29" t="n">
-        <v>499.3853800778592</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y29" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>456.7918502977974</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C30" t="n">
-        <v>282.3388210166704</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="D30" t="n">
-        <v>133.4044113554191</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="E30" t="n">
-        <v>133.4044113554191</v>
+        <v>200.9921430510046</v>
       </c>
       <c r="F30" t="n">
-        <v>133.4044113554191</v>
+        <v>200.9921430510046</v>
       </c>
       <c r="G30" t="n">
-        <v>133.4044113554191</v>
+        <v>200.9921430510046</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6546,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788936</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X30" t="n">
-        <v>728.9050472788936</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y30" t="n">
-        <v>521.1447485139397</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,28 +6719,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y32" t="n">
         <v>506.1786963984129</v>
@@ -6753,46 +6753,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W33" t="n">
-        <v>446.0215048700907</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6874,16 +6874,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>874.2758585542716</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
         <v>829.5248650203655</v>
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6962,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>517.4848137278872</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W35" t="n">
-        <v>517.4848137278872</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X35" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>359.8579014620034</v>
+        <v>587.9903182850353</v>
       </c>
       <c r="C36" t="n">
-        <v>185.4048721808764</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D36" t="n">
-        <v>185.4048721808764</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E36" t="n">
-        <v>26.16741717542092</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
         <v>656.0584510084244</v>
@@ -7047,19 +7047,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>735.8335372470253</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y36" t="n">
-        <v>528.0732384820715</v>
+        <v>756.2056553051034</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>29.11673520316123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7196,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>728.6161971483371</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U38" t="n">
-        <v>728.6161971483371</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V38" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7254,43 +7254,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U39" t="n">
-        <v>660.701031422288</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V39" t="n">
-        <v>470.5814199598456</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X39" t="n">
         <v>19.28114311021272</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>30.98726872390504</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="C41" t="n">
-        <v>30.98726872390504</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D41" t="n">
-        <v>30.98726872390504</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E41" t="n">
-        <v>30.98726872390504</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="F41" t="n">
-        <v>30.98726872390504</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G41" t="n">
-        <v>30.98726872390504</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H41" t="n">
-        <v>30.98726872390504</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="I41" t="n">
-        <v>30.98726872390504</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="J41" t="n">
         <v>18.91727947682168</v>
       </c>
       <c r="K41" t="n">
-        <v>104.1029673515831</v>
+        <v>121.932285387744</v>
       </c>
       <c r="L41" t="n">
-        <v>284.1788189362417</v>
+        <v>302.0081369724026</v>
       </c>
       <c r="M41" t="n">
         <v>501.1544461991459</v>
@@ -7430,31 +7430,31 @@
         <v>945.8639738410842</v>
       </c>
       <c r="Q41" t="n">
-        <v>935.7723584728571</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R41" t="n">
-        <v>935.7723584728571</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S41" t="n">
-        <v>724.6409750524073</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T41" t="n">
-        <v>499.2916320583352</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U41" t="n">
-        <v>260.4370932095765</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V41" t="n">
-        <v>260.4370932095765</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="W41" t="n">
-        <v>30.98726872390504</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="X41" t="n">
-        <v>30.98726872390504</v>
+        <v>735.4808960230977</v>
       </c>
       <c r="Y41" t="n">
-        <v>30.98726872390504</v>
+        <v>496.626357174339</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7464,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>18.91727947682168</v>
+        <v>331.0337992073036</v>
       </c>
       <c r="C42" t="n">
-        <v>18.91727947682168</v>
+        <v>331.0337992073036</v>
       </c>
       <c r="D42" t="n">
-        <v>18.91727947682168</v>
+        <v>331.0337992073036</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91727947682168</v>
+        <v>331.0337992073036</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91727947682168</v>
+        <v>184.4992412341885</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91727947682168</v>
+        <v>45.76841581680404</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>45.76841581680404</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="J42" t="n">
         <v>18.91727947682168</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="L42" t="n">
-        <v>374.2379454030082</v>
+        <v>248.8803853451708</v>
       </c>
       <c r="M42" t="n">
-        <v>374.2379454030082</v>
+        <v>482.9817188708391</v>
       </c>
       <c r="N42" t="n">
         <v>529.119162702065</v>
@@ -7521,19 +7521,19 @@
         <v>945.8639738410842</v>
       </c>
       <c r="U42" t="n">
-        <v>717.6403555774732</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V42" t="n">
-        <v>482.4882473457305</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="W42" t="n">
-        <v>243.6337084969718</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="X42" t="n">
-        <v>226.6775782417756</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="Y42" t="n">
-        <v>18.91727947682168</v>
+        <v>499.2491362273716</v>
       </c>
     </row>
     <row r="43">
@@ -7591,13 +7591,13 @@
         <v>153.4495699670924</v>
       </c>
       <c r="R43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="S43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="T43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="U43" t="n">
         <v>18.91727947682168</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C44" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D44" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E44" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F44" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G44" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H44" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I44" t="n">
         <v>3.166710156947247</v>
@@ -7652,16 +7652,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L44" t="n">
-        <v>40.77139327069581</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M44" t="n">
-        <v>79.95943146291799</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N44" t="n">
-        <v>119.1474696551402</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O44" t="n">
-        <v>158.3355078473624</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P44" t="n">
         <v>158.3355078473624</v>
@@ -7673,22 +7673,22 @@
         <v>123.1178524655551</v>
       </c>
       <c r="S44" t="n">
+        <v>123.1178524655551</v>
+      </c>
+      <c r="T44" t="n">
+        <v>123.1178524655551</v>
+      </c>
+      <c r="U44" t="n">
+        <v>123.1178524655551</v>
+      </c>
+      <c r="V44" t="n">
+        <v>123.1178524655551</v>
+      </c>
+      <c r="W44" t="n">
+        <v>123.1178524655551</v>
+      </c>
+      <c r="X44" t="n">
         <v>83.13413836268582</v>
-      </c>
-      <c r="T44" t="n">
-        <v>43.15042425981653</v>
-      </c>
-      <c r="U44" t="n">
-        <v>43.15042425981653</v>
-      </c>
-      <c r="V44" t="n">
-        <v>43.15042425981653</v>
-      </c>
-      <c r="W44" t="n">
-        <v>43.15042425981653</v>
-      </c>
-      <c r="X44" t="n">
-        <v>43.15042425981653</v>
       </c>
       <c r="Y44" t="n">
         <v>43.15042425981653</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C45" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D45" t="n">
-        <v>123.1178524655551</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E45" t="n">
-        <v>123.1178524655551</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F45" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G45" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H45" t="n">
         <v>3.166710156947247</v>
@@ -7734,16 +7734,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="M45" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N45" t="n">
-        <v>40.77139327069581</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O45" t="n">
-        <v>79.95943146291799</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P45" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q45" t="n">
         <v>158.3355078473624</v>
@@ -7761,16 +7761,16 @@
         <v>158.3355078473624</v>
       </c>
       <c r="V45" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W45" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X45" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y45" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="C46" t="n">
-        <v>93.21247408113457</v>
+        <v>13.245045875396</v>
       </c>
       <c r="D46" t="n">
-        <v>53.22875997826529</v>
+        <v>13.245045875396</v>
       </c>
       <c r="E46" t="n">
         <v>13.245045875396</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>13.245045875396</v>
       </c>
       <c r="G46" t="n">
         <v>3.166710156947247</v>
@@ -7846,10 +7846,10 @@
         <v>133.1961881840039</v>
       </c>
       <c r="X46" t="n">
-        <v>133.1961881840039</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.1961881840039</v>
+        <v>53.22875997826529</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L2" t="n">
         <v>275.3502919318278</v>
@@ -7994,7 +7994,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M3" t="n">
-        <v>180.1185623197441</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>269.9301101891133</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N5" t="n">
-        <v>267.3975919943167</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,19 +8298,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>170.9255890451739</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q6" t="n">
         <v>179.5656510478621</v>
@@ -8453,16 +8453,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L8" t="n">
-        <v>273.750943367713</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O8" t="n">
         <v>269.6820883835273</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M9" t="n">
-        <v>180.1185623197441</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N9" t="n">
         <v>170.9255890451739</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>258.0743794427063</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>235.7664149699872</v>
@@ -8702,10 +8702,10 @@
         <v>268.9969405584315</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>178.1382567417148</v>
       </c>
       <c r="M12" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>169.3262404810591</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>258.0743794427063</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M14" t="n">
         <v>269.9301101891133</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,10 +9012,10 @@
         <v>178.1382567417148</v>
       </c>
       <c r="M15" t="n">
-        <v>180.1185623197441</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -9024,7 +9024,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,13 +9164,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>278.1154692732874</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N17" t="n">
         <v>273.5452359758195</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L18" t="n">
-        <v>180.9034340831744</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O18" t="n">
         <v>186.728416823673</v>
@@ -9261,7 +9261,7 @@
         <v>178.1065797935588</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,22 +9483,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N27" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10194,22 +10194,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,22 +10428,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10674,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.2508595994748</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>306.1360004134264</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>431.5041213350942</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>378.6000273822893</v>
       </c>
       <c r="N42" t="n">
-        <v>287.7873861227846</v>
+        <v>177.9451907007331</v>
       </c>
       <c r="O42" t="n">
         <v>379.0622379047155</v>
@@ -11300,7 +11300,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>273.750943367713</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
         <v>269.9301101891133</v>
@@ -11312,7 +11312,7 @@
         <v>269.6820883835273</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>269.2175241529953</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11382,19 +11382,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N45" t="n">
-        <v>169.3262404810591</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O45" t="n">
         <v>182.180121406285</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5582843761708</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q45" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22592,10 +22592,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>169.4361926244048</v>
+        <v>174.1545907582562</v>
       </c>
       <c r="T2" t="n">
         <v>183.5119726022908</v>
@@ -22604,10 +22604,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>292.8867796421457</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22635,7 +22635,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>110.9503248916526</v>
+        <v>110.2037335653947</v>
       </c>
       <c r="G3" t="n">
         <v>97.75964020137005</v>
@@ -22647,7 +22647,7 @@
         <v>49.81275588957449</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>122.643295545599</v>
+        <v>134.9352350102176</v>
       </c>
       <c r="I4" t="n">
         <v>115.8665979654177</v>
@@ -22729,7 +22729,7 @@
         <v>53.77530315483219</v>
       </c>
       <c r="K4" t="n">
-        <v>12.29193946461858</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>347.8683628354914</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22826,22 +22826,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>226.4708732943921</v>
       </c>
       <c r="V5" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,28 +22860,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>107.8611886027982</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2037335653947</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22929,7 +22929,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>170.8172169493152</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22957,16 +22957,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>53.77530315483219</v>
       </c>
       <c r="K7" t="n">
-        <v>12.29193946461858</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,16 +22984,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>76.18449089043011</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>188.3617124664409</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23030,7 +23030,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>367.2921687798708</v>
+        <v>372.0105669137222</v>
       </c>
       <c r="G8" t="n">
         <v>375.7188605532945</v>
@@ -23039,7 +23039,7 @@
         <v>299.8909251539266</v>
       </c>
       <c r="I8" t="n">
-        <v>175.6104107424167</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23109,7 +23109,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>110.2037335653947</v>
+        <v>110.9503248916526</v>
       </c>
       <c r="G9" t="n">
         <v>97.75964020137005</v>
@@ -23121,7 +23121,7 @@
         <v>49.81275588957449</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>383.9598562683348</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23300,19 +23300,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>238.4201626490047</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23346,16 +23346,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>97.75964020137005</v>
+        <v>103.2246296614793</v>
       </c>
       <c r="H12" t="n">
         <v>72.65156727465587</v>
       </c>
       <c r="I12" t="n">
-        <v>55.27774534968376</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23431,10 +23431,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
         <v>53.77530315483219</v>
@@ -23458,10 +23458,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23516,7 +23516,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,22 +23537,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>115.0036391131605</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T14" t="n">
-        <v>183.5119726022908</v>
+        <v>210.1703593052995</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23668,10 +23668,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
         <v>53.77530315483219</v>
@@ -23695,10 +23695,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>389.9444168792442</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23789,16 +23789,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>288.8806410385104</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23820,16 +23820,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>51.27160674604839</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>187.8163559756081</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>147.8250225705301</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,16 +23944,16 @@
         <v>183.8134170490529</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W19" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>224.9192049413549</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,16 +23975,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="21">
@@ -24045,13 +24045,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24060,7 +24060,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>47.4074464837075</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24181,7 +24181,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24209,25 +24209,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>139.1387058269376</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,13 +24260,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24288,19 +24288,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>5.424356414370408</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,22 +24330,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24415,7 +24415,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24497,7 +24497,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24506,7 +24506,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>145.2236497783945</v>
@@ -24519,16 +24519,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24540,7 +24540,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>50.6095962307643</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24646,7 +24646,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24695,10 +24695,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>315.6617859658621</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24725,10 +24725,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24737,16 +24737,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>333.812370168306</v>
       </c>
     </row>
     <row r="30">
@@ -24756,16 +24756,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>102.8238144158865</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24774,13 +24774,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>21.73818714652757</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,16 +24807,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24825,7 +24825,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24886,7 +24886,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24929,10 +24929,10 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,10 +24959,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24971,7 +24971,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>86.73796959247585</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>333.812370168306</v>
       </c>
     </row>
     <row r="33">
@@ -25008,16 +25008,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>123.0222126385783</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,25 +25041,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25114,19 +25114,19 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25151,16 +25151,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25175,7 +25175,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0.7562331984329429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25202,25 +25202,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,16 +25233,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>59.84577397866495</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>138.9983923950856</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25287,7 +25287,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25296,10 +25296,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25315,7 +25315,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25391,16 +25391,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25409,10 +25409,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>2.2120531825935</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,10 +25436,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25448,7 +25448,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25515,25 +25515,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>44.58217180160733</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25603,7 +25603,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>146.2678482032095</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>128.8068983107365</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25649,7 +25649,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,31 +25670,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>14.87965944756544</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>122.0856424765983</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>161.4518536386624</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>149.7719451957825</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25716,19 +25716,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>63.5605992010904</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,16 +25761,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>15.22898970064855</v>
       </c>
       <c r="X42" t="n">
-        <v>188.9864162508332</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25883,7 +25883,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25913,10 +25913,10 @@
         <v>115.0036391131605</v>
       </c>
       <c r="S44" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25928,10 +25928,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="45">
@@ -25944,22 +25944,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>137.8430201603266</v>
       </c>
       <c r="D45" t="n">
-        <v>112.5795867366496</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -26001,13 +26001,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26026,16 +26026,16 @@
         <v>127.6629441367872</v>
       </c>
       <c r="D46" t="n">
-        <v>109.0315960563718</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>135.443495661667</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>158.0134269971945</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26086,10 +26086,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>179.0007763902542</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358683.4735004299</v>
+        <v>358683.4735004298</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495368.783772988</v>
+        <v>495368.7837729881</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355290.5609397931</v>
+        <v>355290.5609397933</v>
       </c>
     </row>
   </sheetData>
@@ -26320,37 +26320,37 @@
         <v>71053.67965375919</v>
       </c>
       <c r="E2" t="n">
-        <v>71053.67965375916</v>
+        <v>71053.67965375919</v>
       </c>
       <c r="F2" t="n">
-        <v>71053.67965375917</v>
+        <v>71053.67965375919</v>
       </c>
       <c r="G2" t="n">
-        <v>71731.80321071927</v>
+        <v>71731.80321071928</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879934</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="I2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="J2" t="n">
+        <v>99696.40351879942</v>
+      </c>
+      <c r="K2" t="n">
         <v>99696.40351879939</v>
       </c>
-      <c r="J2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="N2" t="n">
         <v>99696.40351879937</v>
       </c>
-      <c r="M2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879939</v>
-      </c>
       <c r="O2" t="n">
-        <v>99050.37600907715</v>
+        <v>99050.37600907717</v>
       </c>
       <c r="P2" t="n">
         <v>71053.67965375919</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.4675990829</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="C4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="D4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="E4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="F4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
       <c r="G4" t="n">
-        <v>11735.85292711539</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="H4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>16522.45939543529</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>16522.45939543528</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16411.88104199264</v>
+        <v>16801.53650439377</v>
       </c>
       <c r="P4" t="n">
-        <v>11619.78080134547</v>
+        <v>11897.85367509446</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10134.1315340509</v>
+        <v>9856.058660301911</v>
       </c>
       <c r="C6" t="n">
-        <v>23399.59913313381</v>
+        <v>23121.52625938482</v>
       </c>
       <c r="D6" t="n">
-        <v>23399.59913313381</v>
+        <v>23121.52625938482</v>
       </c>
       <c r="E6" t="n">
-        <v>57027.19913313378</v>
+        <v>56749.12625938482</v>
       </c>
       <c r="F6" t="n">
-        <v>57027.19913313379</v>
+        <v>56749.12625938482</v>
       </c>
       <c r="G6" t="n">
-        <v>56066.09465347198</v>
+        <v>55785.31907576998</v>
       </c>
       <c r="H6" t="n">
-        <v>15399.70838927736</v>
+        <v>15007.47814373182</v>
       </c>
       <c r="I6" t="n">
-        <v>68520.27535960244</v>
+        <v>68128.04511405685</v>
       </c>
       <c r="J6" t="n">
-        <v>58163.39145579861</v>
+        <v>57771.16121025309</v>
       </c>
       <c r="K6" t="n">
-        <v>68520.2753596024</v>
+        <v>68128.04511405688</v>
       </c>
       <c r="L6" t="n">
-        <v>68520.27535960241</v>
+        <v>68128.04511405685</v>
       </c>
       <c r="M6" t="n">
-        <v>68520.27535960243</v>
+        <v>68128.04511405685</v>
       </c>
       <c r="N6" t="n">
-        <v>68520.27535960244</v>
+        <v>68128.04511405686</v>
       </c>
       <c r="O6" t="n">
-        <v>68261.36256470003</v>
+        <v>67871.70710229893</v>
       </c>
       <c r="P6" t="n">
-        <v>57027.19913313381</v>
+        <v>56749.12625938482</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L2" t="n">
         <v>39.58387696184059</v>
@@ -34714,7 +34714,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M3" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="N3" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="N5" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="N5" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>39.58387696184059</v>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="L8" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>39.58387696184059</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M9" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N9" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="P9" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35422,10 +35422,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="O11" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="P11" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="M12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>37.98452839772582</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M14" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="O14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,11 +35732,11 @@
         <v>39.58387696184059</v>
       </c>
       <c r="M15" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="N15" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>42.34905430330018</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>44.13217237922859</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>42.34905430330018</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>44.13217237922859</v>
@@ -35981,7 +35981,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36914,22 +36914,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798016</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,7 +37394,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9091475161415</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>86.04614936844587</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>201.1578881078215</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="N42" t="n">
-        <v>156.4456740394513</v>
+        <v>46.60347861739982</v>
       </c>
       <c r="O42" t="n">
         <v>236.4659934602711</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>39.58387696184059</v>
@@ -38032,7 +38032,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N45" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O45" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P45" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376293.3082743285</v>
+        <v>373007.8661325562</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221768</v>
+        <v>2114249.189782366</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179438</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4902171.467891437</v>
+        <v>5117581.913230948</v>
       </c>
     </row>
     <row r="11">
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>34.86547882798917</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.29193749722201</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>19.9316902659215</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -938,25 +940,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -984,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>34.86547882798917</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1075,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>19.9316902659215</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.977552361264268</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F8" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1221,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>34.11888750173132</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1333,16 +1335,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
-        <v>39.58387696184059</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T10" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1385,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,16 +1417,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U11" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1461,16 +1463,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1607,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1628,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1652,19 +1654,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>39.58387696184059</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="S14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1695,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1746,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1777,19 +1779,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K16" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>16.93162886246722</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,19 +1891,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1932,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2002,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2053,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2093,7 +2095,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,31 +2159,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>121.2086027464166</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2333,13 +2335,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2369,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2400,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>142.0207091502683</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>125.1842293982951</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2415,7 +2417,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2555,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2573,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>110.1497834296626</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2652,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2685,19 +2687,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>47.60962922203598</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2734,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2752,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>14.83685490770582</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>241.0142888776591</v>
@@ -2834,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2846,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2880,16 +2882,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>77.92691371295918</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>90.4972570899689</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3035,22 +3037,22 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>220.8837963815378</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3086,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35.40726547353833</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>16.16726461546785</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3208,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3323,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>112.8627250096508</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>62.07749986335751</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3405,10 +3407,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>35.40726547353833</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>217.9741114308361</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>208.2792470398066</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,28 +3821,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>164.4530035161876</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>25.83603365032467</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3879,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>92.95466700954542</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>34.86547882798917</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,19 +4109,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>39.58387696184059</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>39.58387696184059</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
-        <v>81.54278654139161</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M2" t="n">
-        <v>120.7308247336138</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N2" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>123.1178524655551</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T2" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U2" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V2" t="n">
-        <v>43.15042425981653</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W2" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="C3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="D3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="E3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1178524655551</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G3" t="n">
-        <v>83.13413836268582</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H3" t="n">
-        <v>43.15042425981653</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>81.54278654139161</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M3" t="n">
-        <v>120.7308247336138</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N3" t="n">
-        <v>158.3355078473624</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O3" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="X3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.3355078473624</v>
+        <v>4.284706443124001</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="C4" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="D4" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="E4" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="F4" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="G4" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="H4" t="n">
-        <v>105.6285745504463</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="I4" t="n">
-        <v>65.64486044757699</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="J4" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.1961881840039</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S4" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="T4" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="U4" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="V4" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="W4" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C5" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D5" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E5" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F5" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M5" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N5" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>68.2764642733967</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>28.29275017052741</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W5" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X5" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1178524655551</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G6" t="n">
-        <v>83.13413836268582</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H6" t="n">
-        <v>43.15042425981653</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>3.166710156947247</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M6" t="n">
-        <v>3.166710156947247</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N6" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O6" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.15042425981653</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="C7" t="n">
-        <v>43.15042425981653</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="D7" t="n">
-        <v>43.15042425981653</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="E7" t="n">
-        <v>43.15042425981653</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="F7" t="n">
-        <v>43.15042425981653</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="G7" t="n">
-        <v>43.15042425981653</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="H7" t="n">
-        <v>43.15042425981653</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="I7" t="n">
-        <v>43.15042425981653</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="J7" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q7" t="n">
-        <v>123.1178524655551</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R7" t="n">
-        <v>83.13413836268582</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="S7" t="n">
-        <v>83.13413836268582</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="T7" t="n">
-        <v>43.15042425981653</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="U7" t="n">
-        <v>43.15042425981653</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="V7" t="n">
-        <v>43.15042425981653</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="W7" t="n">
-        <v>43.15042425981653</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="X7" t="n">
-        <v>43.15042425981653</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.15042425981653</v>
+        <v>46.15803044872652</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C8" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D8" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L8" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M8" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N8" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F9" t="n">
-        <v>123.8719851183408</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G9" t="n">
-        <v>83.88827101547153</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H9" t="n">
-        <v>43.90455691260225</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M9" t="n">
-        <v>79.95943146291799</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N9" t="n">
-        <v>119.1474696551402</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O9" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R10" t="n">
-        <v>50.47982994280417</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S10" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.2366994040306</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="C11" t="n">
-        <v>15.2366994040306</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="D11" t="n">
-        <v>15.2366994040306</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="E11" t="n">
-        <v>15.2366994040306</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="F11" t="n">
-        <v>15.2366994040306</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="G11" t="n">
-        <v>15.2366994040306</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="H11" t="n">
-        <v>15.2366994040306</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I11" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M11" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N11" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O11" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.2438924791353</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>108.260178376266</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S11" t="n">
-        <v>68.2764642733967</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T11" t="n">
-        <v>28.29275017052741</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U11" t="n">
-        <v>15.2366994040306</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V11" t="n">
-        <v>15.2366994040306</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W11" t="n">
-        <v>15.2366994040306</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X11" t="n">
-        <v>15.2366994040306</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.2366994040306</v>
+        <v>121.8591222504766</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C12" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D12" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E12" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>83.88827101547153</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L12" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M12" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N12" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S12" t="n">
-        <v>118.3517937444931</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T12" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U12" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V12" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W12" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X12" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y12" t="n">
-        <v>118.3517937444931</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.22875997826529</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C13" t="n">
-        <v>53.22875997826529</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D13" t="n">
-        <v>53.22875997826529</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E13" t="n">
-        <v>53.22875997826529</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F13" t="n">
-        <v>53.22875997826529</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G13" t="n">
-        <v>53.22875997826529</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H13" t="n">
-        <v>53.22875997826529</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I13" t="n">
-        <v>53.22875997826529</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>13.245045875396</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>53.22875997826529</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S13" t="n">
-        <v>53.22875997826529</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T13" t="n">
-        <v>53.22875997826529</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U13" t="n">
-        <v>53.22875997826529</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V13" t="n">
-        <v>53.22875997826529</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W13" t="n">
-        <v>53.22875997826529</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X13" t="n">
-        <v>53.22875997826529</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.22875997826529</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55.22041350689989</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C14" t="n">
-        <v>15.2366994040306</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D14" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E14" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F14" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G14" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M14" t="n">
-        <v>120.7308247336138</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N14" t="n">
-        <v>158.3355078473624</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.2438924791353</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>108.260178376266</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S14" t="n">
-        <v>68.2764642733967</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T14" t="n">
-        <v>55.22041350689989</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U14" t="n">
-        <v>55.22041350689989</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V14" t="n">
-        <v>55.22041350689989</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W14" t="n">
-        <v>55.22041350689989</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X14" t="n">
-        <v>55.22041350689989</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y14" t="n">
-        <v>55.22041350689989</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>123.8719851183408</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>83.88827101547153</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L15" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M15" t="n">
-        <v>120.7308247336138</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N15" t="n">
-        <v>158.3355078473624</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O15" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C16" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D16" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E16" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F16" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G16" t="n">
-        <v>53.22875997826529</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="H16" t="n">
-        <v>53.22875997826529</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="I16" t="n">
-        <v>53.22875997826529</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="J16" t="n">
-        <v>13.245045875396</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U16" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V16" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W16" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X16" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.22875997826529</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>149.3344187320537</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>166.4370741486873</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>166.4370741486873</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>166.4370741486873</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>47.22142444577459</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N18" t="n">
-        <v>89.14698820604177</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P18" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>176.5286895169144</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>176.5286895169144</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>176.5286895169144</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.329008585976936</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>4.329008585976936</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>4.329008585976936</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>4.329008585976936</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.329008585976936</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5783,19 +5785,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>136.7812428759814</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
         <v>473.4149733950735</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X21" t="n">
-        <v>512.7568786610034</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y21" t="n">
-        <v>304.9965798960495</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="22">
@@ -5932,13 +5934,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>720.6083788665362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="C24" t="n">
-        <v>720.6083788665362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="D24" t="n">
-        <v>577.1531170985884</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="E24" t="n">
-        <v>417.9156620931329</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F24" t="n">
-        <v>271.3811041200179</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6075,7 +6077,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X24" t="n">
-        <v>720.6083788665362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="Y24" t="n">
-        <v>720.6083788665362</v>
+        <v>634.6640077999109</v>
       </c>
     </row>
     <row r="25">
@@ -6175,7 +6177,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7108255783361</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y26" t="n">
-        <v>233.7108255783361</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.7341723913397</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6309,13 +6311,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6333,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W27" t="n">
-        <v>720.6083788665362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X27" t="n">
-        <v>512.7568786610034</v>
+        <v>485.5564080380782</v>
       </c>
       <c r="Y27" t="n">
-        <v>304.9965798960495</v>
+        <v>277.7961092731243</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G29" t="n">
         <v>262.7299197543128</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>360.2295980564601</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C30" t="n">
-        <v>360.2295980564601</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D30" t="n">
-        <v>360.2295980564601</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E30" t="n">
-        <v>200.9921430510046</v>
+        <v>97.99519736572705</v>
       </c>
       <c r="F30" t="n">
-        <v>200.9921430510046</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>200.9921430510046</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6552,13 +6554,13 @@
         <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>360.2295980564601</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>360.2295980564601</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>360.2295980564601</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y30" t="n">
-        <v>360.2295980564601</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="31">
@@ -6643,7 +6645,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="33">
@@ -6780,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>928.2922408909005</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>928.2922408909005</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>726.1056462496665</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>497.8820279860555</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>262.7299197543128</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C35" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D35" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>587.9903182850353</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C36" t="n">
-        <v>473.9875657500345</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D36" t="n">
-        <v>325.0531560887832</v>
+        <v>571.6739692052849</v>
       </c>
       <c r="E36" t="n">
-        <v>165.8157010833278</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7053,13 +7055,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>756.2056553051034</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y36" t="n">
-        <v>756.2056553051034</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="37">
@@ -7120,19 +7122,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
         <v>829.5248650203655</v>
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
         <v>262.7299197543128</v>
@@ -7199,25 +7201,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U38" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>928.2922408909005</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>726.1056462496665</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>497.8820279860555</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="V39" t="n">
-        <v>262.7299197543128</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="40">
@@ -7363,16 +7365,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
         <v>19.28114311021272</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.7718183255803</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>945.8639738410842</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T41" t="n">
-        <v>945.8639738410842</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U41" t="n">
-        <v>945.8639738410842</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V41" t="n">
-        <v>945.8639738410842</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W41" t="n">
-        <v>945.8639738410842</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X41" t="n">
-        <v>735.4808960230977</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y41" t="n">
-        <v>496.626357174339</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>331.0337992073036</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C42" t="n">
-        <v>331.0337992073036</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D42" t="n">
-        <v>331.0337992073036</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E42" t="n">
-        <v>331.0337992073036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>184.4992412341885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>45.76841581680404</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>45.76841581680404</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>19.6714121296074</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>248.8803853451708</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>482.9817188708391</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>529.119162702065</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>763.2204962277333</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>707.0094349923255</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>707.0094349923255</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y42" t="n">
-        <v>499.2491362273716</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.166710156947247</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C44" t="n">
-        <v>3.166710156947247</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D44" t="n">
-        <v>3.166710156947247</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="E44" t="n">
-        <v>3.166710156947247</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="F44" t="n">
-        <v>3.166710156947247</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>3.166710156947247</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>3.166710156947247</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>42.35474834916943</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>81.54278654139161</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>120.7308247336138</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>123.1178524655551</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>123.1178524655551</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>123.1178524655551</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>123.1178524655551</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V44" t="n">
-        <v>123.1178524655551</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W44" t="n">
-        <v>123.1178524655551</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X44" t="n">
-        <v>83.13413836268582</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y44" t="n">
-        <v>43.15042425981653</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>38.38436553875449</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>3.166710156947247</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M45" t="n">
-        <v>42.35474834916943</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>81.54278654139161</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>120.7308247336138</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>158.3355078473624</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U45" t="n">
-        <v>158.3355078473624</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V45" t="n">
-        <v>118.3517937444931</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W45" t="n">
-        <v>78.36807964162378</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X45" t="n">
-        <v>38.38436553875449</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y45" t="n">
-        <v>38.38436553875449</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.22875997826529</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M2" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>267.3975919943167</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>178.1382567417148</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M3" t="n">
-        <v>181.7179108838589</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8222,16 +8224,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,22 +8300,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>258.0743794427063</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L8" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8537,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>170.9255890451739</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8696,16 +8698,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>268.0827398194126</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>270.8168727171101</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,19 +8774,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>178.1382567417148</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>169.3262404810591</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O12" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>267.3975919943167</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9006,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>177.4253159361996</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L15" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9723,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9957,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M27" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10115,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10200,16 +10202,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10439,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10448,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>431.5041213350942</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11145,16 +11147,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N42" t="n">
-        <v>177.9451907007331</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>269.9301101891133</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>268.9969405584315</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>269.2175241529953</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,19 +11381,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M45" t="n">
-        <v>181.7179108838589</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>170.9255890451739</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>182.180121406285</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>171.9589358120561</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22595,22 +22597,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>174.1545907582562</v>
+        <v>170.1484521546208</v>
       </c>
       <c r="T2" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>309.6570917555724</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22635,19 +22637,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>110.2037335653947</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>187.8163559756081</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22720,13 +22722,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>134.9352350102176</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>73.42748985075127</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22796,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>376.4311200835105</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22826,25 +22828,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>226.4708732943921</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22872,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>110.2037335653947</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G6" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H6" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22963,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>73.42748985075127</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,19 +22983,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>76.18449089043011</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R7" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>188.3617124664409</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>353.8529234464008</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F8" t="n">
-        <v>372.0105669137222</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23063,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23109,16 +23111,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>110.9503248916526</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H9" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23221,16 +23223,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R10" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
-        <v>184.4327210751317</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T10" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23261,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23273,13 +23275,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>310.5938838986874</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U11" t="n">
-        <v>238.4201626490047</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,16 +23351,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>103.2246296614793</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>60.57395719080255</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J13" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>12.29193946461858</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23470,10 +23472,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>251.3471928761457</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23495,10 +23497,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23516,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>110.2852409793091</v>
+        <v>120.9881997240699</v>
       </c>
       <c r="S14" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>210.1703593052995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23583,19 +23585,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,10 +23624,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>132.8115536722133</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23634,10 +23636,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23665,19 +23667,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>161.4367220597573</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J16" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K16" t="n">
-        <v>12.29193946461858</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>389.9444168792442</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23820,19 +23822,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>51.27160674604839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23890,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D19" t="n">
-        <v>147.8250225705301</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23941,13 +23943,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>208.0054709445994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23981,7 +23983,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24023,7 +24025,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,31 +24047,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>56.38340022020472</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>26.23646281822218</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,7 +24098,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24108,13 +24110,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24181,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24221,13 +24223,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>139.1387058269376</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,19 +24259,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24288,10 +24290,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>5.424356414370408</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>32.46085105710584</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24303,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24339,13 +24341,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24415,10 +24417,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24443,16 +24445,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24461,10 +24463,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>148.8473042969312</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>56.38340022020472</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24540,7 +24542,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24573,19 +24575,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>158.1633559814415</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24622,10 +24624,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24640,10 +24642,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398857</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24664,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24692,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>98.46051323810809</v>
@@ -24722,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24734,19 +24736,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>333.812370168306</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24768,16 +24770,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>67.1422986804247</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>21.73818714652757</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24807,19 +24809,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24883,10 +24885,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24923,22 +24925,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>118.5910057342293</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24974,7 +24976,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>333.812370168306</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>64.7505686791048</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>216.6333225339574</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>140.004192713242</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25096,7 +25098,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>22.26949182588285</v>
@@ -25126,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25211,13 +25213,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>59.84577397866495</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>95.56758059204344</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25293,10 +25295,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25360,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25375,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25391,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>317.3055321907215</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,25 +25520,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>136.2759056302995</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>7.967270650138715</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25603,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="41">
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.2678482032095</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>128.8068983107365</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>18.67467251196047</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>161.4518536386624</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.7719451957825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25707,28 +25709,28 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>8.255495472128104</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>63.5605992010904</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25767,7 +25769,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>246.5201351062217</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25910,7 +25912,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>115.0036391131605</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25928,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>137.8430201603266</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25995,19 +25997,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>193.2167101875847</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>212.111106199079</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>166.1891082416369</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C46" t="n">
-        <v>127.6629441367872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>158.0134269971945</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26086,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355290.5609397931</v>
+        <v>358683.47350043</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.47350043</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355290.5609397933</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358683.4735004298</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495368.7837729881</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355290.5609397933</v>
+        <v>498601.107484141</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.8032107192</v>
       </c>
       <c r="C2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.80321071921</v>
       </c>
       <c r="D2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.8032107192</v>
       </c>
       <c r="E2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.80321071924</v>
       </c>
       <c r="F2" t="n">
-        <v>71053.67965375919</v>
+        <v>71731.80321071924</v>
       </c>
       <c r="G2" t="n">
-        <v>71731.80321071928</v>
+        <v>99696.4035187994</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="I2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="J2" t="n">
-        <v>99696.40351879942</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="K2" t="n">
         <v>99696.40351879939</v>
       </c>
       <c r="L2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="M2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="N2" t="n">
+        <v>99696.40351879934</v>
+      </c>
+      <c r="O2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="P2" t="n">
         <v>99696.40351879937</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99050.37600907717</v>
-      </c>
-      <c r="P2" t="n">
-        <v>71053.67965375919</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="C4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="D4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="E4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="F4" t="n">
-        <v>11897.85367509446</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="G4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
         <v>16914.68964098084</v>
@@ -26454,10 +26456,10 @@
         <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>16801.53650439377</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>11897.85367509446</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9856.058660301911</v>
+        <v>8614.632621000455</v>
       </c>
       <c r="C6" t="n">
-        <v>23121.52625938482</v>
+        <v>23404.33862524469</v>
       </c>
       <c r="D6" t="n">
-        <v>23121.52625938482</v>
+        <v>23404.33862524468</v>
       </c>
       <c r="E6" t="n">
-        <v>56749.12625938482</v>
+        <v>57031.93862524472</v>
       </c>
       <c r="F6" t="n">
-        <v>56749.12625938482</v>
+        <v>57031.93862524472</v>
       </c>
       <c r="G6" t="n">
-        <v>55785.31907576998</v>
+        <v>14165.61021358458</v>
       </c>
       <c r="H6" t="n">
-        <v>15007.47814373182</v>
+        <v>68128.04511405683</v>
       </c>
       <c r="I6" t="n">
         <v>68128.04511405685</v>
       </c>
       <c r="J6" t="n">
-        <v>57771.16121025309</v>
+        <v>56581.12700406594</v>
       </c>
       <c r="K6" t="n">
         <v>68128.04511405688</v>
       </c>
       <c r="L6" t="n">
-        <v>68128.04511405685</v>
+        <v>68128.04511405688</v>
       </c>
       <c r="M6" t="n">
         <v>68128.04511405685</v>
       </c>
       <c r="N6" t="n">
+        <v>68128.04511405683</v>
+      </c>
+      <c r="O6" t="n">
+        <v>20748.1668965931</v>
+      </c>
+      <c r="P6" t="n">
         <v>68128.04511405686</v>
-      </c>
-      <c r="O6" t="n">
-        <v>67871.70710229893</v>
-      </c>
-      <c r="P6" t="n">
-        <v>56749.12625938482</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34942,16 +34944,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35416,16 +35418,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36443,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36677,16 +36679,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M27" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36920,16 +36922,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,7 +37159,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>240.0046611659691</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N39" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>201.1578881078215</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37865,16 +37867,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N42" t="n">
-        <v>46.60347861739982</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>39.58387696184059</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>39.58387696184059</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>37.98452839772582</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373007.8661325562</v>
+        <v>267281.5962860413</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782366</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.60956401</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5117581.913230948</v>
+        <v>5765385.898601452</v>
       </c>
     </row>
     <row r="11">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,16 +703,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>67.09626824883767</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>19.9316902659215</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,16 +910,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>38.12502610536668</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>81.13435889727448</v>
       </c>
     </row>
     <row r="7">
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>19.9316902659215</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>123.9717416665522</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1332,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,25 +1375,25 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>208.2638363878125</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>38.87161743162455</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>85.45989995870414</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>240.2580556792261</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>121.8430658505937</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>44.13217237922859</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1779,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -1900,10 +1900,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1934,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>122.5377819982128</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2004,58 +2004,58 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>121.2086027464166</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>106.8917755397596</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2183,7 +2183,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,49 +2332,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2405,19 +2405,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>125.1842293982951</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>70.64856914772001</v>
       </c>
     </row>
     <row r="25">
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,16 +2569,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,16 +2599,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>220.8837963815379</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,22 +2687,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>47.60962922203598</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2730,16 +2730,16 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2754,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>14.83685490770582</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2836,31 +2836,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="30">
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>77.92691371295918</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2936,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3037,61 +3037,61 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>94.41048699370604</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>220.8837963815378</v>
-      </c>
-      <c r="I32" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,28 +3110,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>53.24673895424847</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3167,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>16.16726461546785</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3265,73 +3265,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F35" t="n">
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>28.01113608653127</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>62.07749986335751</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3407,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3505,28 +3505,28 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>9.234466016111892</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3593,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>217.9741114308361</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>114.8493096330855</v>
       </c>
     </row>
     <row r="40">
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,31 +3739,31 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>190.3453970742849</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>164.4530035161876</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="43">
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,25 +3982,25 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>92.95466700954542</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>9.737236172019017</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,16 +4021,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="T45" t="n">
-        <v>29.05241763862484</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>137.2644294849704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>92.68647758675968</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>92.68647758675968</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>92.68647758675968</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>48.10852568854899</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>3.530573790338288</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.284706443124001</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C3" t="n">
-        <v>4.284706443124001</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="D3" t="n">
-        <v>4.284706443124001</v>
+        <v>372.3205348328715</v>
       </c>
       <c r="E3" t="n">
-        <v>4.284706443124001</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F3" t="n">
-        <v>4.284706443124001</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>45.45613755060546</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>89.14698820604177</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8378388614781</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>87.37278572049297</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>42.79483382228227</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>4.284706443124001</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>4.284706443124001</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>4.284706443124001</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X3" t="n">
-        <v>4.284706443124001</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.284706443124001</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>131.9507376187037</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C5" t="n">
-        <v>131.9507376187037</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D5" t="n">
-        <v>131.9507376187037</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E5" t="n">
-        <v>131.9507376187037</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F5" t="n">
-        <v>131.9507376187037</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G5" t="n">
-        <v>92.68647758675968</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>48.10852568854899</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>3.530573790338288</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>90.91227510121089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>134.6031257566472</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W5" t="n">
-        <v>131.9507376187037</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X5" t="n">
-        <v>131.9507376187037</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y5" t="n">
-        <v>131.9507376187037</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176.5286895169144</v>
+        <v>612.718391167419</v>
       </c>
       <c r="C6" t="n">
-        <v>176.5286895169144</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D6" t="n">
-        <v>176.5286895169144</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E6" t="n">
-        <v>176.5286895169144</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F6" t="n">
-        <v>138.0185621377561</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G6" t="n">
-        <v>93.44061023954541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>45.45613755060546</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>89.14698820604177</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.5286895169144</v>
+        <v>780.9337281874871</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>137.2644294849704</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C8" t="n">
-        <v>92.68647758675968</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D8" t="n">
-        <v>48.10852568854899</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>166.4370741486873</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V8" t="n">
-        <v>166.4370741486873</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W8" t="n">
-        <v>166.4370741486873</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X8" t="n">
-        <v>166.4370741486873</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y8" t="n">
-        <v>166.4370741486873</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.5286895169144</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>138.0185621377561</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>93.44061023954541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>48.8626583413347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>3.530573790338288</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>45.45613755060546</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>89.14698820604177</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W9" t="n">
-        <v>176.5286895169144</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X9" t="n">
-        <v>176.5286895169144</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.5286895169144</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>121.8591222504766</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C11" t="n">
-        <v>121.8591222504766</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D11" t="n">
-        <v>77.28117035226589</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E11" t="n">
-        <v>77.28117035226589</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F11" t="n">
-        <v>77.28117035226589</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G11" t="n">
-        <v>77.28117035226589</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H11" t="n">
-        <v>48.10852568854899</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>3.530573790338288</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>90.91227510121089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>134.6031257566472</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>121.8591222504766</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U11" t="n">
-        <v>121.8591222504766</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V11" t="n">
-        <v>121.8591222504766</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W11" t="n">
-        <v>121.8591222504766</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X11" t="n">
-        <v>121.8591222504766</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y11" t="n">
-        <v>121.8591222504766</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.530573790338288</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C12" t="n">
-        <v>3.530573790338288</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D12" t="n">
-        <v>3.530573790338288</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E12" t="n">
-        <v>3.530573790338288</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>45.45613755060546</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>45.45613755060546</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
-        <v>89.14698820604177</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>137.2644294849704</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>92.68647758675968</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>48.10852568854899</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U12" t="n">
-        <v>3.530573790338288</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V12" t="n">
-        <v>3.530573790338288</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W12" t="n">
-        <v>3.530573790338288</v>
+        <v>574.3779001508697</v>
       </c>
       <c r="X12" t="n">
-        <v>3.530573790338288</v>
+        <v>366.5263999453368</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.530573790338288</v>
+        <v>158.7661011803829</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.10852568854899</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C14" t="n">
-        <v>48.10852568854899</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D14" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E14" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F14" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>137.2644294849704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>137.2644294849704</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T14" t="n">
-        <v>137.2644294849704</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U14" t="n">
-        <v>92.68647758675968</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V14" t="n">
-        <v>48.10852568854899</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W14" t="n">
-        <v>48.10852568854899</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X14" t="n">
-        <v>48.10852568854899</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y14" t="n">
-        <v>48.10852568854899</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.530573790338288</v>
+        <v>142.3549469997013</v>
       </c>
       <c r="C15" t="n">
-        <v>3.530573790338288</v>
+        <v>142.3549469997013</v>
       </c>
       <c r="D15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>45.45613755060546</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>89.14698820604177</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M15" t="n">
-        <v>89.14698820604177</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>89.14698820604177</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>92.68647758675968</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U15" t="n">
-        <v>92.68647758675968</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V15" t="n">
-        <v>92.68647758675968</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W15" t="n">
-        <v>48.10852568854899</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X15" t="n">
-        <v>3.530573790338288</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.530573790338288</v>
+        <v>310.5702840197694</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5600,16 +5600,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
         <v>19.28114311021272</v>
@@ -5703,22 +5703,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5785,19 +5785,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5810,46 +5810,46 @@
         <v>790.6398109613051</v>
       </c>
       <c r="C21" t="n">
-        <v>790.6398109613051</v>
+        <v>616.1867816801781</v>
       </c>
       <c r="D21" t="n">
-        <v>668.2068788942177</v>
+        <v>616.1867816801781</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5934,10 +5934,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
         <v>19.28114311021272</v>
@@ -5971,13 +5971,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,25 +6010,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
         <v>262.7299197543128</v>
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>634.6640077999109</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>634.6640077999109</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>634.6640077999109</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6071,49 +6071,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>634.6640077999109</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>634.6640077999109</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W24" t="n">
-        <v>634.6640077999109</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X24" t="n">
-        <v>634.6640077999109</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="Y24" t="n">
-        <v>634.6640077999109</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6174,10 +6174,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6308,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6335,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V27" t="n">
-        <v>533.6469426057913</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>533.6469426057913</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>485.5564080380782</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>277.7961092731243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H28" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>97.99519736572705</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6545,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8469951458151</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>860.4511411346975</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6584,10 +6584,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>257.2326523711826</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6645,7 +6645,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>953.9655401424092</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="C32" t="n">
-        <v>953.9655401424092</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="D32" t="n">
-        <v>953.9655401424092</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="E32" t="n">
-        <v>710.516763498309</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="F32" t="n">
-        <v>467.067986854209</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="G32" t="n">
-        <v>467.067986854209</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H32" t="n">
-        <v>243.9530410142718</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="Y32" t="n">
-        <v>953.9655401424092</v>
+        <v>114.6452713866835</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>846.5570557448675</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>603.1082791007675</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X33" t="n">
-        <v>395.2567788952347</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y33" t="n">
-        <v>187.4964801302808</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
         <v>19.28114311021272</v>
@@ -6882,28 +6882,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.6083788665362</v>
+        <v>206.8126749707503</v>
       </c>
       <c r="C36" t="n">
-        <v>720.6083788665362</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D36" t="n">
-        <v>571.6739692052849</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7025,7 +7025,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
         <v>473.4149733950735</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X36" t="n">
-        <v>720.6083788665362</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y36" t="n">
-        <v>720.6083788665362</v>
+        <v>375.0280119908184</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>802.5825927271064</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U38" t="n">
-        <v>802.5825927271064</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V38" t="n">
-        <v>802.5825927271064</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W38" t="n">
-        <v>802.5825927271064</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>194.4883050441255</v>
+        <v>544.6916277525047</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7256,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>790.6398109613051</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U39" t="n">
-        <v>570.4639408291474</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V39" t="n">
-        <v>570.4639408291474</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W39" t="n">
-        <v>570.4639408291474</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X39" t="n">
-        <v>570.4639408291474</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y39" t="n">
-        <v>362.7036420641935</v>
+        <v>544.6916277525047</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
         <v>19.28114311021272</v>
@@ -7377,7 +7377,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.35113235729608</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C41" t="n">
-        <v>31.35113235729608</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D41" t="n">
-        <v>31.35113235729608</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E41" t="n">
-        <v>31.35113235729608</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="F41" t="n">
-        <v>31.35113235729608</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="G41" t="n">
-        <v>31.35113235729608</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="H41" t="n">
-        <v>31.35113235729608</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7438,25 +7438,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>761.6974622895962</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T41" t="n">
-        <v>761.6974622895962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U41" t="n">
-        <v>761.6974622895962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V41" t="n">
-        <v>761.6974622895962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W41" t="n">
-        <v>518.2486856454962</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X41" t="n">
-        <v>274.7999090013961</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.7999090013961</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>344.6327430815143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
         <v>19.28114311021272</v>
@@ -7493,19 +7493,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7523,19 +7523,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>720.6083788665362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7599,16 +7599,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>812.6742080953335</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C44" t="n">
-        <v>812.6742080953335</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="D44" t="n">
-        <v>812.6742080953335</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E44" t="n">
-        <v>812.6742080953335</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F44" t="n">
-        <v>569.2254314512334</v>
+        <v>485.167420504237</v>
       </c>
       <c r="G44" t="n">
-        <v>325.7766548071333</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H44" t="n">
-        <v>231.8830517671884</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>29.11673520316123</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>812.6742080953335</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U44" t="n">
-        <v>812.6742080953335</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V44" t="n">
-        <v>812.6742080953335</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W44" t="n">
-        <v>812.6742080953335</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X44" t="n">
-        <v>812.6742080953335</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y44" t="n">
-        <v>812.6742080953335</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7754,25 +7754,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T45" t="n">
-        <v>934.7112791079849</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U45" t="n">
-        <v>706.487660844374</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V45" t="n">
-        <v>471.3355526126313</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W45" t="n">
-        <v>227.8867759685313</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X45" t="n">
-        <v>20.03527576299844</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I46" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>273.5820500585697</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>173.6907663866335</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>273.5820500585697</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4738844625619</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O12" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>180.1904932776592</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>182.6865521591028</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9248,19 +9248,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10205,10 +10205,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P30" t="n">
-        <v>238.6269471880057</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,10 +10673,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>197.6503338623806</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22558,13 +22558,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22591,16 +22591,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>170.1484521546208</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22609,10 +22609,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>325.5989282992405</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,22 +22625,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>90.54881220656327</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>187.8163559756081</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22728,10 +22728,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>73.42748985075127</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22764,7 +22764,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>282.3542047108594</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>376.4311200835105</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,13 +22831,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>106.9441862880172</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>124.5483368800299</v>
       </c>
     </row>
     <row r="7">
@@ -22965,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>73.42748985075127</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -22995,7 +22995,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>183.8134170490529</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>353.8529234464008</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>310.5508692414544</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>186.6629199992865</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23074,16 +23074,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23111,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>106.9441862880172</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23153,22 +23153,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>81.80124353692528</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23220,16 +23220,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23263,25 +23263,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5508692414544</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>310.5938838986874</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>177.9741022682411</v>
       </c>
     </row>
     <row r="12">
@@ -23351,7 +23351,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>61.28621672101858</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>166.2350832022155</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23436,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>111.3183025480297</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23463,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23472,10 +23472,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>251.3471928761457</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5508692414544</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23518,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>120.9881997240699</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>207.2134805286079</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.9829130381869</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>25.60199971404505</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23624,10 +23624,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>132.8115536722133</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23636,10 +23636,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>207.562810781691</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>161.6408128242489</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>123.8588069792302</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>161.4367220597573</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23743,13 +23743,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>395.6829895855319</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23788,10 +23788,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23822,16 +23822,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>22.5314303951711</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23977,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24025,7 +24025,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24050,13 +24050,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>26.23646281822218</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>50.75330491564131</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24071,7 +24071,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,7 +24220,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,10 +24259,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>20.80116313523413</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24293,19 +24293,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>32.46085105710584</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>135.0341266295844</v>
       </c>
     </row>
     <row r="25">
@@ -24414,13 +24414,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,16 +24457,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,16 +24487,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>148.8473042969312</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24542,7 +24542,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24575,22 +24575,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>158.1633559814415</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24618,16 +24618,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24642,10 +24642,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>71.32518834398857</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24694,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,31 +24724,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="30">
@@ -24767,10 +24767,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>67.1422986804247</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24824,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24885,10 +24885,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24925,22 +24925,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>118.5910057342293</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>116.0654025766999</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24976,10 +24976,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24998,28 +24998,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>104.3983415011525</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25055,16 +25055,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>216.6333225339574</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>140.004192713242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25098,7 +25098,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
         <v>22.26949182588285</v>
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>145.0597660285826</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25207,7 +25207,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25216,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>144.6973629017845</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>95.56758059204344</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25295,13 +25295,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25362,10 +25362,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25402,19 +25402,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>397.6415797255996</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>317.3055321907215</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25481,16 +25481,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>7.967270650138715</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25538,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>90.83338614421891</v>
       </c>
     </row>
     <row r="40">
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25642,16 +25642,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.7562331984329429</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>18.67467251196047</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25690,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>8.255495472128104</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25763,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="43">
@@ -25839,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25870,25 +25870,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>246.5201351062217</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>2.2120531825935</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,16 +25909,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>121.6254758352848</v>
       </c>
       <c r="T45" t="n">
-        <v>171.1123110561968</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26043,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358683.47350043</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358683.47350043</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358683.4735004299</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498601.107484141</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71731.8032107192</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="C2" t="n">
-        <v>71731.80321071921</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="D2" t="n">
-        <v>71731.8032107192</v>
+        <v>99696.40351879939</v>
       </c>
       <c r="E2" t="n">
-        <v>71731.80321071924</v>
+        <v>99696.40351879937</v>
       </c>
       <c r="F2" t="n">
-        <v>71731.80321071924</v>
+        <v>99696.40351879934</v>
       </c>
       <c r="G2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="H2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="I2" t="n">
         <v>99696.4035187994</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>99696.40351879936</v>
+      </c>
+      <c r="K2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="L2" t="n">
         <v>99696.40351879934</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>99696.4035187994</v>
+      </c>
+      <c r="N2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="J2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="L2" t="n">
-        <v>99696.40351879939</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>99696.40351879937</v>
+      </c>
+      <c r="P2" t="n">
         <v>99696.40351879936</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99696.40351879934</v>
-      </c>
-      <c r="O2" t="n">
-        <v>99696.4035187994</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99696.40351879937</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>12016.62850481742</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
         <v>16914.68964098084</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8614.632621000455</v>
+        <v>-58486.99703753132</v>
       </c>
       <c r="C6" t="n">
-        <v>23404.33862524469</v>
+        <v>22282.43449401642</v>
       </c>
       <c r="D6" t="n">
-        <v>23404.33862524468</v>
+        <v>22282.43449401642</v>
       </c>
       <c r="E6" t="n">
-        <v>57031.93862524472</v>
+        <v>55910.0344940164</v>
       </c>
       <c r="F6" t="n">
-        <v>57031.93862524472</v>
+        <v>55910.03449401637</v>
       </c>
       <c r="G6" t="n">
-        <v>14165.61021358458</v>
+        <v>55910.0344940164</v>
       </c>
       <c r="H6" t="n">
-        <v>68128.04511405683</v>
+        <v>55910.03449401639</v>
       </c>
       <c r="I6" t="n">
-        <v>68128.04511405685</v>
+        <v>55910.03449401643</v>
       </c>
       <c r="J6" t="n">
-        <v>56581.12700406594</v>
+        <v>-7149.908105089849</v>
       </c>
       <c r="K6" t="n">
-        <v>68128.04511405688</v>
+        <v>55910.0344940164</v>
       </c>
       <c r="L6" t="n">
-        <v>68128.04511405688</v>
+        <v>55910.03449401636</v>
       </c>
       <c r="M6" t="n">
-        <v>68128.04511405685</v>
+        <v>55910.03449401643</v>
       </c>
       <c r="N6" t="n">
-        <v>68128.04511405683</v>
+        <v>55910.03449401638</v>
       </c>
       <c r="O6" t="n">
-        <v>20748.1668965931</v>
+        <v>55910.0344940164</v>
       </c>
       <c r="P6" t="n">
-        <v>68128.04511405686</v>
+        <v>55910.03449401638</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>42.34905430330016</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>42.34905430330016</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>44.13217237922859</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>44.13217237922859</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36925,10 +36925,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P30" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N36" t="n">
         <v>217.7067518141195</v>
-      </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_12.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267281.5962860413</v>
+        <v>361671.1651892323</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>2114249.189782368</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5765385.898601452</v>
+        <v>5117581.913230948</v>
       </c>
     </row>
     <row r="11">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>202.2946864288972</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>67.09626824883767</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V4" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.3796369526212</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,22 +940,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>81.13435889727448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>220.2131257424249</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>123.9717416665522</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="11">
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>208.2638363878125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>85.45989995870414</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="13">
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I13" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="W14" t="n">
-        <v>240.2580556792261</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>121.8430658505937</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1739,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>11.19305615617957</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1934,16 +1934,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>122.5377819982128</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>70.73885857389313</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,28 +2162,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>106.8917755397596</v>
+        <v>130.6057506315558</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2323,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2362,16 +2362,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>241.0142888776591</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2459,13 +2459,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>70.64856914772001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>241.0142888776591</v>
@@ -2599,31 +2599,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>3.265316057196634</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>56.91690033700343</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2730,58 +2730,58 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2836,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2936,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>29.88929839105575</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3046,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="I32" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3073,28 +3073,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>53.24673895424847</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="C35" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>28.01113608653127</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3514,19 +3514,19 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>9.234466016111892</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3593,19 +3593,19 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -3644,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>152.0246714969779</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>114.8493096330855</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3672,49 +3672,49 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,16 +3754,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,31 +3976,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>9.737236172019017</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="46">
@@ -4155,40 +4155,40 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710.516763498309</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C2" t="n">
-        <v>710.516763498309</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D2" t="n">
-        <v>710.516763498309</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E2" t="n">
-        <v>710.516763498309</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F2" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X2" t="n">
-        <v>710.516763498309</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.516763498309</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>521.2549444941228</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C3" t="n">
-        <v>521.2549444941228</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D3" t="n">
-        <v>372.3205348328715</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>304.5465265007123</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>158.0119685275972</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U3" t="n">
-        <v>689.4702815141908</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V3" t="n">
-        <v>689.4702815141908</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W3" t="n">
-        <v>689.4702815141908</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X3" t="n">
-        <v>689.4702815141908</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y3" t="n">
-        <v>689.4702815141908</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T5" t="n">
-        <v>376.1934816808115</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U5" t="n">
-        <v>376.1934816808115</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="V5" t="n">
-        <v>376.1934816808115</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W5" t="n">
-        <v>376.1934816808115</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X5" t="n">
-        <v>376.1934816808115</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y5" t="n">
-        <v>132.7447050367114</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>612.718391167419</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C6" t="n">
-        <v>612.718391167419</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D6" t="n">
-        <v>463.7839815061678</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E6" t="n">
-        <v>304.5465265007123</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y6" t="n">
-        <v>780.9337281874871</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.7186438601369</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C8" t="n">
-        <v>241.7186438601369</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D8" t="n">
-        <v>241.7186438601369</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E8" t="n">
-        <v>241.7186438601369</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T8" t="n">
-        <v>728.6161971483371</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U8" t="n">
-        <v>485.167420504237</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V8" t="n">
-        <v>485.167420504237</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W8" t="n">
-        <v>241.7186438601369</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X8" t="n">
-        <v>241.7186438601369</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.7186438601369</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>193.7341723913397</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U9" t="n">
-        <v>761.8705608694022</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V9" t="n">
-        <v>526.7184526376595</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W9" t="n">
-        <v>526.7184526376595</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X9" t="n">
-        <v>401.4944711562937</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y9" t="n">
-        <v>193.7341723913397</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>518.2486856454962</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="C11" t="n">
-        <v>518.2486856454962</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="D11" t="n">
-        <v>518.2486856454962</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="E11" t="n">
-        <v>518.2486856454962</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="F11" t="n">
-        <v>274.7999090013961</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="G11" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T11" t="n">
-        <v>728.6161971483371</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U11" t="n">
-        <v>728.6161971483371</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="V11" t="n">
-        <v>728.6161971483371</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="W11" t="n">
-        <v>728.6161971483371</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="X11" t="n">
-        <v>728.6161971483371</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="Y11" t="n">
-        <v>518.2486856454962</v>
+        <v>32.70321845405519</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.7661011803829</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C12" t="n">
-        <v>158.7661011803829</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D12" t="n">
-        <v>158.7661011803829</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E12" t="n">
-        <v>158.7661011803829</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F12" t="n">
-        <v>158.7661011803829</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M12" t="n">
-        <v>374.6018090363993</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>660.701031422288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U12" t="n">
-        <v>660.701031422288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V12" t="n">
-        <v>660.701031422288</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W12" t="n">
-        <v>574.3779001508697</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X12" t="n">
-        <v>366.5263999453368</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.7661011803829</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.35113235729608</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C14" t="n">
-        <v>31.35113235729608</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D14" t="n">
-        <v>31.35113235729608</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E14" t="n">
-        <v>31.35113235729608</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F14" t="n">
-        <v>31.35113235729608</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S14" t="n">
-        <v>742.8341567219593</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T14" t="n">
-        <v>517.4848137278872</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U14" t="n">
-        <v>274.0360370837871</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V14" t="n">
-        <v>274.0360370837871</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W14" t="n">
-        <v>31.35113235729608</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X14" t="n">
-        <v>31.35113235729608</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.35113235729608</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>142.3549469997013</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C15" t="n">
-        <v>142.3549469997013</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>234.810827406191</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M15" t="n">
-        <v>473.4149733950735</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>761.8705608694022</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U15" t="n">
-        <v>761.8705608694022</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V15" t="n">
-        <v>761.8705608694022</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W15" t="n">
-        <v>518.4217842253022</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X15" t="n">
-        <v>310.5702840197694</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y15" t="n">
-        <v>310.5702840197694</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C17" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D17" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5542,25 +5542,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5597,16 +5597,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5624,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>728.9050472788936</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W18" t="n">
-        <v>485.4562706347935</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X18" t="n">
-        <v>485.4562706347935</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5703,13 +5703,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>742.8341567219593</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>790.6398109613051</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="C21" t="n">
-        <v>616.1867816801781</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="D21" t="n">
-        <v>616.1867816801781</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="E21" t="n">
-        <v>508.2152912359765</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F21" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>790.6398109613051</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X21" t="n">
-        <v>790.6398109613051</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y21" t="n">
-        <v>790.6398109613051</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
         <v>19.28114311021272</v>
@@ -5940,22 +5940,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>90.33569644483418</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6071,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>298.4948343740486</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>298.4948343740486</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>90.64333416851576</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="25">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
         <v>19.28114311021272</v>
@@ -6174,25 +6174,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>262.7299197543128</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6311,43 +6311,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="T27" t="n">
-        <v>933.9571464551993</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="U27" t="n">
-        <v>705.7335281915883</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V27" t="n">
-        <v>470.5814199598456</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6429,7 +6429,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>591.4512093066566</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U29" t="n">
-        <v>591.4512093066566</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V29" t="n">
-        <v>348.0024326625565</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W29" t="n">
-        <v>104.5536560184564</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X29" t="n">
-        <v>104.5536560184564</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6569,22 +6569,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
         <v>19.28114311021272</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H31" t="n">
         <v>19.28114311021272</v>
@@ -6648,25 +6648,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>114.6452713866835</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C32" t="n">
-        <v>114.6452713866835</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D32" t="n">
-        <v>114.6452713866835</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E32" t="n">
-        <v>114.6452713866835</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F32" t="n">
-        <v>114.6452713866835</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G32" t="n">
-        <v>114.6452713866835</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H32" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>601.5428246748836</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>601.5428246748836</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V32" t="n">
-        <v>358.0940480307835</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W32" t="n">
-        <v>114.6452713866835</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X32" t="n">
-        <v>114.6452713866835</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y32" t="n">
-        <v>114.6452713866835</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>795.8418184905681</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>621.3887892094411</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>472.4543795481899</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>418.6697947459187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
         <v>20.03527576299844</v>
@@ -6782,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>65.60123993063803</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6812,19 +6812,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X33" t="n">
-        <v>964.0571555106362</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y33" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6882,25 +6882,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
         <v>19.28114311021272</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6976,13 +6976,13 @@
         <v>728.6161971483371</v>
       </c>
       <c r="W35" t="n">
-        <v>485.167420504237</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X35" t="n">
-        <v>241.7186438601369</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.7186438601369</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>206.8126749707503</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7019,16 +7019,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V36" t="n">
-        <v>790.6398109613051</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W36" t="n">
-        <v>790.6398109613051</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>582.7883107557723</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>375.0280119908184</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
         <v>19.28114311021272</v>
@@ -7125,22 +7125,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>527.5764290961142</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>527.5764290961142</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V38" t="n">
-        <v>527.5764290961142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X38" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>527.5764290961142</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>544.6916277525047</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>370.2385984713777</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>370.2385984713777</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>370.2385984713777</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V39" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W39" t="n">
-        <v>660.701031422288</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>660.701031422288</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>544.6916277525047</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
         <v>19.28114311021272</v>
@@ -7362,22 +7362,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>517.4848137278872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>517.4848137278872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>517.4848137278872</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7438,25 +7438,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7523,16 +7523,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y42" t="n">
         <v>19.28114311021272</v>
@@ -7596,7 +7596,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>728.6161971483371</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>29.11673520316123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>728.6161971483371</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U44" t="n">
-        <v>728.6161971483371</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V44" t="n">
-        <v>728.6161971483371</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W44" t="n">
-        <v>728.6161971483371</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X44" t="n">
-        <v>728.6161971483371</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y44" t="n">
-        <v>728.6161971483371</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="45">
@@ -7736,16 +7736,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7754,22 +7754,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>913.4938269565423</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>678.3417187247995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>227.0414418751666</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
         <v>19.28114311021272</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
         <v>19.28114311021272</v>
@@ -7836,22 +7836,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>177.2597568922521</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N12" t="n">
-        <v>231.1529892133073</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9011,22 +9011,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,10 +9166,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9245,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9482,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>382.1386950879875</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9719,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9959,10 +9959,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9971,10 +9971,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,13 +10202,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>185.3423563661624</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10442,13 +10442,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>349.0484638974528</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>241.9453110519923</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>312.5030352242461</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11384,10 +11384,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22558,13 +22558,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>204.5813593128142</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22591,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>170.1484521546208</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,22 +22625,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>90.54881220656327</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22673,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>193.9289697178007</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22761,13 +22761,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V4" t="n">
-        <v>118.95067573846</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>285.7325478889088</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282.3542047108594</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,22 +22828,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>298.8713402530552</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,25 +22862,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>98.47189973158609</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>124.5483368800299</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>179.041529734255</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22995,7 +22995,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23004,13 +23004,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="8">
@@ -23032,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>186.6629199992865</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23074,22 +23074,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>222.4647346907568</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23150,25 +23150,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>81.80124353692528</v>
+        <v>166.9013677718529</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>179.041529734255</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23241,13 +23241,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="11">
@@ -23269,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>386.4218192980553</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23281,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>177.9741022682411</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>50.52501541979053</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23399,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>166.2350832022155</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="13">
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>167.2005289107765</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I13" t="n">
-        <v>22.26350734189026</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23512,13 +23512,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>298.8713402530552</v>
       </c>
       <c r="W14" t="n">
-        <v>108.9829130381869</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>25.60199971404505</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23627,19 +23627,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>166.4563706509456</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>104.4833006389838</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>102.3017902673406</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I16" t="n">
         <v>155.4504749272583</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23734,22 +23734,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>395.6829895855319</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23782,10 +23782,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23822,16 +23822,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>22.5314303951711</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23864,22 +23864,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>180.9561245870265</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,19 +23974,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>105.1858963954562</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24050,28 +24050,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>50.75330491564131</v>
+        <v>27.03932982384518</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,16 +24098,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24211,13 +24211,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>336.5320379404362</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24250,16 +24250,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>10.33136403017744</v>
@@ -24296,7 +24296,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>115.2702034285012</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24338,7 +24338,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24347,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>135.0341266295844</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24414,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24454,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>174.288448637476</v>
@@ -24487,31 +24487,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>219.8305335069347</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>129.0278429749881</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24569,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>43.24093381563971</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24618,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="29">
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24724,16 +24724,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24742,13 +24742,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>301.8181508768923</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24809,10 +24809,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24824,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>175.8836868124217</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24855,7 +24855,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24934,10 +24934,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>119.2616763733422</v>
       </c>
       <c r="I32" t="n">
-        <v>116.0654025766999</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24961,28 +24961,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>104.3983415011525</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25052,19 +25052,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>162.5207159210556</v>
       </c>
       <c r="C35" t="n">
-        <v>145.0597660285826</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25216,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>144.6973629017845</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25283,19 +25283,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25365,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25402,19 +25402,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>397.6415797255996</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25447,13 +25447,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>316.5592023139553</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25481,19 +25481,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25532,13 +25532,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>99.67031166394173</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>90.83338614421891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25630,10 +25630,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,16 +25642,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0.7562331984329429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25763,7 +25763,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25836,10 +25836,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>270.4049153562469</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>2.2120531825935</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,13 +25909,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>121.6254758352848</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="46">
@@ -26043,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26076,7 +26076,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498601.1074841411</v>
+        <v>358683.4735004298</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498601.1074841411</v>
+        <v>358683.4735004298</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498601.1074841411</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>498601.1074841412</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>498601.1074841411</v>
+        <v>358683.4735004299</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.1074841412</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498601.1074841411</v>
+        <v>498601.107484141</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498601.1074841412</v>
+        <v>498601.1074841411</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99696.40351879937</v>
+        <v>71731.80321071923</v>
       </c>
       <c r="C2" t="n">
-        <v>99696.40351879939</v>
+        <v>71731.80321071924</v>
       </c>
       <c r="D2" t="n">
-        <v>99696.40351879939</v>
+        <v>71731.80321071924</v>
       </c>
       <c r="E2" t="n">
-        <v>99696.40351879937</v>
+        <v>71731.80321071924</v>
       </c>
       <c r="F2" t="n">
-        <v>99696.40351879934</v>
+        <v>71731.80321071923</v>
       </c>
       <c r="G2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879936</v>
       </c>
       <c r="H2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879942</v>
       </c>
       <c r="I2" t="n">
         <v>99696.4035187994</v>
       </c>
       <c r="J2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="K2" t="n">
+        <v>99696.40351879939</v>
+      </c>
+      <c r="L2" t="n">
         <v>99696.40351879936</v>
       </c>
-      <c r="K2" t="n">
-        <v>99696.40351879937</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>99696.40351879934</v>
-      </c>
-      <c r="M2" t="n">
-        <v>99696.4035187994</v>
       </c>
       <c r="N2" t="n">
         <v>99696.40351879936</v>
       </c>
       <c r="O2" t="n">
-        <v>99696.40351879937</v>
+        <v>99696.40351879943</v>
       </c>
       <c r="P2" t="n">
-        <v>99696.40351879936</v>
+        <v>99696.40351879934</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="C4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="D4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="E4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="F4" t="n">
-        <v>16914.68964098084</v>
+        <v>12016.62850481742</v>
       </c>
       <c r="G4" t="n">
         <v>16914.68964098084</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58486.99703753132</v>
+        <v>7159.79322309577</v>
       </c>
       <c r="C6" t="n">
-        <v>22282.43449401642</v>
+        <v>21949.49922734001</v>
       </c>
       <c r="D6" t="n">
-        <v>22282.43449401642</v>
+        <v>21949.49922734001</v>
       </c>
       <c r="E6" t="n">
-        <v>55910.0344940164</v>
+        <v>55577.09922734</v>
       </c>
       <c r="F6" t="n">
-        <v>55910.03449401637</v>
+        <v>55577.09922733999</v>
       </c>
       <c r="G6" t="n">
-        <v>55910.0344940164</v>
+        <v>12943.80915158048</v>
       </c>
       <c r="H6" t="n">
-        <v>55910.03449401639</v>
+        <v>66906.24405205286</v>
       </c>
       <c r="I6" t="n">
-        <v>55910.03449401643</v>
+        <v>66906.24405205285</v>
       </c>
       <c r="J6" t="n">
-        <v>-7149.908105089849</v>
+        <v>55359.32594206194</v>
       </c>
       <c r="K6" t="n">
-        <v>55910.0344940164</v>
+        <v>66906.24405205283</v>
       </c>
       <c r="L6" t="n">
-        <v>55910.03449401636</v>
+        <v>66906.2440520528</v>
       </c>
       <c r="M6" t="n">
-        <v>55910.03449401643</v>
+        <v>66906.24405205279</v>
       </c>
       <c r="N6" t="n">
-        <v>55910.03449401638</v>
+        <v>66906.2440520528</v>
       </c>
       <c r="O6" t="n">
-        <v>55910.0344940164</v>
+        <v>19526.36583458908</v>
       </c>
       <c r="P6" t="n">
-        <v>55910.03449401638</v>
+        <v>66906.24405205279</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>43.28534947792182</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N12" t="n">
-        <v>99.81127712997396</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410587</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36679,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36691,10 +36691,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36922,13 +36922,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O30" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>46.78797658628819</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37162,13 +37162,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>217.7067518141195</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>99.81127712997396</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>169.9067907798016</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38104,10 +38104,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
